--- a/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/F/AngVel/sample1_csv/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/F/AngVel/sample1_csv/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\OTIS_Four_Bar\RMSE_Results\F\AngVel\sample1_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF38E760-8EF9-42C3-A3E6-9BA7440363F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB07AFD9-24E2-4FFC-AD2A-E42D06728CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{E5A2A958-5A38-471F-9B9A-AFF4C9D4D9D1}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{542C9C13-69E8-4367-ACC6-D96CFF97D52C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{857F11CA-6569-4651-85CB-F394F181ED85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A796616C-3CEE-4CE1-AA6C-F68D79A1AC89}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
